--- a/Code/Results/Cases/Case_2_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_102/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.990058288540736</v>
+        <v>1.018980872966287</v>
       </c>
       <c r="D2">
-        <v>1.01035916979486</v>
+        <v>1.02446114319694</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9926147277508489</v>
       </c>
       <c r="F2">
-        <v>0.9990307580728476</v>
+        <v>1.030335168224708</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041690399069937</v>
+        <v>1.029215397759858</v>
       </c>
       <c r="J2">
-        <v>1.012540475769067</v>
+        <v>1.024186229349376</v>
       </c>
       <c r="K2">
-        <v>1.021676047063697</v>
+        <v>1.027289577123887</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523336033</v>
       </c>
       <c r="M2">
-        <v>1.010503612510988</v>
+        <v>1.033146478001981</v>
       </c>
       <c r="N2">
-        <v>1.013978399384676</v>
+        <v>1.025640691270855</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9946078539828742</v>
+        <v>1.019913273533354</v>
       </c>
       <c r="D3">
-        <v>1.01361554276014</v>
+        <v>1.02513220951308</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519304</v>
       </c>
       <c r="F3">
-        <v>1.004400368555283</v>
+        <v>1.031500539460234</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043016037360287</v>
+        <v>1.029395916392016</v>
       </c>
       <c r="J3">
-        <v>1.015246601527303</v>
+        <v>1.024755276268684</v>
       </c>
       <c r="K3">
-        <v>1.024077124551201</v>
+        <v>1.027768109657025</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202692</v>
       </c>
       <c r="M3">
-        <v>1.01497725376993</v>
+        <v>1.034119223370288</v>
       </c>
       <c r="N3">
-        <v>1.016688368151885</v>
+        <v>1.026210546302058</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9974852863328371</v>
+        <v>1.020516462159065</v>
       </c>
       <c r="D4">
-        <v>1.015675271836164</v>
+        <v>1.025565968343524</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930995</v>
       </c>
       <c r="F4">
-        <v>1.007796529442156</v>
+        <v>1.032254491270626</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043839141878787</v>
+        <v>1.029510801833604</v>
       </c>
       <c r="J4">
-        <v>1.01695353822405</v>
+        <v>1.025122764841613</v>
       </c>
       <c r="K4">
-        <v>1.025588120865249</v>
+        <v>1.028076609206849</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668345</v>
       </c>
       <c r="M4">
-        <v>1.017801759206441</v>
+        <v>1.034747965024949</v>
       </c>
       <c r="N4">
-        <v>1.018397728894529</v>
+        <v>1.026578556750913</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9986796406088345</v>
+        <v>1.020770009468696</v>
       </c>
       <c r="D5">
-        <v>1.016530201448026</v>
+        <v>1.025748207948639</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9945786998346017</v>
       </c>
       <c r="F5">
-        <v>1.009206257194187</v>
+        <v>1.032571423921618</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044177066011226</v>
+        <v>1.02955863900478</v>
       </c>
       <c r="J5">
-        <v>1.017660915768889</v>
+        <v>1.025277083452268</v>
       </c>
       <c r="K5">
-        <v>1.026213429246483</v>
+        <v>1.028206028070511</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.997117960005301</v>
       </c>
       <c r="M5">
-        <v>1.018972980511367</v>
+        <v>1.035012123047279</v>
       </c>
       <c r="N5">
-        <v>1.019106110996619</v>
+        <v>1.026733094511695</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9988792961576743</v>
+        <v>1.020812579219242</v>
       </c>
       <c r="D6">
-        <v>1.016673114037519</v>
+        <v>1.025778800145932</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9946255319796338</v>
       </c>
       <c r="F6">
-        <v>1.009441920685908</v>
+        <v>1.032624636635983</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044233334803981</v>
+        <v>1.029566644048021</v>
       </c>
       <c r="J6">
-        <v>1.017779097898924</v>
+        <v>1.025302984031158</v>
       </c>
       <c r="K6">
-        <v>1.026317848258713</v>
+        <v>1.028227741958509</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673453</v>
       </c>
       <c r="M6">
-        <v>1.01916870091736</v>
+        <v>1.035056466671446</v>
       </c>
       <c r="N6">
-        <v>1.019224460958835</v>
+        <v>1.026759031872378</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9975013047890459</v>
+        <v>1.020519850201564</v>
       </c>
       <c r="D7">
-        <v>1.015686738132914</v>
+        <v>1.025568403881866</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9943035907982488</v>
       </c>
       <c r="F7">
-        <v>1.007815436150122</v>
+        <v>1.032258726252532</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043843688854434</v>
+        <v>1.029511442846971</v>
       </c>
       <c r="J7">
-        <v>1.01696302995206</v>
+        <v>1.025124827537201</v>
       </c>
       <c r="K7">
-        <v>1.025596514839765</v>
+        <v>1.028078339586947</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462087</v>
       </c>
       <c r="M7">
-        <v>1.017817471992655</v>
+        <v>1.034751495365445</v>
       </c>
       <c r="N7">
-        <v>1.018407234101881</v>
+        <v>1.026580622375765</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9916099569530669</v>
+        <v>1.019296010198256</v>
       </c>
       <c r="D8">
-        <v>1.01146970482563</v>
+        <v>1.024688029045342</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674301</v>
       </c>
       <c r="F8">
-        <v>1.000862119694408</v>
+        <v>1.030729036220263</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042145702813613</v>
+        <v>1.029276802582981</v>
       </c>
       <c r="J8">
-        <v>1.013464367813564</v>
+        <v>1.02437869076697</v>
       </c>
       <c r="K8">
-        <v>1.022496521102487</v>
+        <v>1.027451535674335</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.995817528259106</v>
       </c>
       <c r="M8">
-        <v>1.012030425671437</v>
+        <v>1.033475364731474</v>
       </c>
       <c r="N8">
-        <v>1.014903603461847</v>
+        <v>1.025833426005738</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9806916031363968</v>
+        <v>1.017138417044893</v>
       </c>
       <c r="D9">
-        <v>1.003658867878052</v>
+        <v>1.023133173525957</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9879741547325159</v>
+        <v>1.028032581264317</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038878865741505</v>
+        <v>1.028848636154837</v>
       </c>
       <c r="J9">
-        <v>1.006945111816872</v>
+        <v>1.023058389517736</v>
       </c>
       <c r="K9">
-        <v>1.016692860124742</v>
+        <v>1.026338303870982</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.001265403508973</v>
+        <v>1.031221370737172</v>
       </c>
       <c r="N9">
-        <v>1.008375089373871</v>
+        <v>1.024511249777289</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9730092413662842</v>
+        <v>1.015699349548485</v>
       </c>
       <c r="D10">
-        <v>0.9981704969513081</v>
+        <v>1.022094294984481</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9789016669886744</v>
+        <v>1.0262342816595</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036502326481384</v>
+        <v>1.028553335697396</v>
       </c>
       <c r="J10">
-        <v>1.002336224050927</v>
+        <v>1.022174511273745</v>
       </c>
       <c r="K10">
-        <v>1.012572862394786</v>
+        <v>1.025590323998051</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9936626016328953</v>
+        <v>1.029715138738248</v>
       </c>
       <c r="N10">
-        <v>1.003759656458652</v>
+        <v>1.023626116324808</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9695765892373842</v>
+        <v>1.015076061498879</v>
       </c>
       <c r="D11">
-        <v>0.9957209857339312</v>
+        <v>1.021643913735907</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9748460448144254</v>
+        <v>1.025455433578786</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035422715445323</v>
+        <v>1.028423134962715</v>
       </c>
       <c r="J11">
-        <v>1.000272169714248</v>
+        <v>1.021790915513347</v>
       </c>
       <c r="K11">
-        <v>1.010724051685723</v>
+        <v>1.025265066546617</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.990258446588739</v>
+        <v>1.02906207288061</v>
       </c>
       <c r="N11">
-        <v>1.001692670928064</v>
+        <v>1.023241975814432</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9682846333288312</v>
+        <v>1.01484452034675</v>
       </c>
       <c r="D12">
-        <v>0.9947995735445284</v>
+        <v>1.021476541869188</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9733192681603505</v>
+        <v>1.025166108048748</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035013784775877</v>
+        <v>1.028374422370938</v>
       </c>
       <c r="J12">
-        <v>0.9994946524232763</v>
+        <v>1.021648300528998</v>
       </c>
       <c r="K12">
-        <v>1.01002708834843</v>
+        <v>1.025144045087072</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9889761241973445</v>
+        <v>1.028819365823694</v>
       </c>
       <c r="N12">
-        <v>1.000914049473356</v>
+        <v>1.023099158300447</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9685625441815041</v>
+        <v>1.014894187803148</v>
       </c>
       <c r="D13">
-        <v>0.994997752368101</v>
+        <v>1.021512447318299</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9736477081870569</v>
+        <v>1.025228170576452</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035101865387886</v>
+        <v>1.028384887230554</v>
       </c>
       <c r="J13">
-        <v>0.9996619323934598</v>
+        <v>1.021678897824112</v>
       </c>
       <c r="K13">
-        <v>1.01017706076212</v>
+        <v>1.02517001393039</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9892520126884482</v>
+        <v>1.02887143317131</v>
       </c>
       <c r="N13">
-        <v>1.001081567000285</v>
+        <v>1.02312979904723</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9694701467281842</v>
+        <v>1.015056922728106</v>
       </c>
       <c r="D14">
-        <v>0.9956450607753703</v>
+        <v>1.021630080356393</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9747202633577924</v>
+        <v>1.025431518388797</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035389076515205</v>
+        <v>1.028419115507397</v>
       </c>
       <c r="J14">
-        <v>1.000208124351372</v>
+        <v>1.021779129573084</v>
       </c>
       <c r="K14">
-        <v>1.010666652217214</v>
+        <v>1.02525506708153</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9901528201581303</v>
+        <v>1.029042013280546</v>
       </c>
       <c r="N14">
-        <v>1.001628534613426</v>
+        <v>1.023230173136782</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9700270787309279</v>
+        <v>1.015157185882084</v>
       </c>
       <c r="D15">
-        <v>0.9960423394519831</v>
+        <v>1.021702547350915</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9753783664260921</v>
+        <v>1.025556804129788</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035564977940231</v>
+        <v>1.028440158278932</v>
       </c>
       <c r="J15">
-        <v>1.000543197815403</v>
+        <v>1.02184086838804</v>
       </c>
       <c r="K15">
-        <v>1.010966934305567</v>
+        <v>1.025307443806764</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9907054375602267</v>
+        <v>1.029147096164651</v>
       </c>
       <c r="N15">
-        <v>1.001964083920209</v>
+        <v>1.023291999627937</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9732347379328274</v>
+        <v>1.015740711718097</v>
       </c>
       <c r="D16">
-        <v>0.9983314757366375</v>
+        <v>1.022124174005613</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9791680430656425</v>
+        <v>1.026285967542707</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036572884874104</v>
+        <v>1.028561927554817</v>
       </c>
       <c r="J16">
-        <v>1.002471720910689</v>
+        <v>1.022199950948831</v>
       </c>
       <c r="K16">
-        <v>1.012694154851915</v>
+        <v>1.025611881294649</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9938860768036099</v>
+        <v>1.029758462460511</v>
       </c>
       <c r="N16">
-        <v>1.003895345739495</v>
+        <v>1.023651592127151</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9752177407559574</v>
+        <v>1.016106698720142</v>
       </c>
       <c r="D17">
-        <v>0.9997474440895315</v>
+        <v>1.022388505342687</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9815103211993003</v>
+        <v>1.02674330577386</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037191365670344</v>
+        <v>1.028637685672038</v>
       </c>
       <c r="J17">
-        <v>1.003662742891045</v>
+        <v>1.022424961115562</v>
       </c>
       <c r="K17">
-        <v>1.013759902975278</v>
+        <v>1.025802478557324</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>0.9958504988304993</v>
+        <v>1.030141726471555</v>
       </c>
       <c r="N17">
-        <v>1.005088059107676</v>
+        <v>1.023876921834128</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.97636422140802</v>
+        <v>1.016320157073171</v>
       </c>
       <c r="D18">
-        <v>1.000566351927688</v>
+        <v>1.022542633178449</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9828643503090699</v>
+        <v>1.027010046835683</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037547260278398</v>
+        <v>1.028681648908666</v>
       </c>
       <c r="J18">
-        <v>1.004350888951797</v>
+        <v>1.022556121709899</v>
       </c>
       <c r="K18">
-        <v>1.014375316555492</v>
+        <v>1.025913517796589</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>0.9969855714933858</v>
+        <v>1.030365195185839</v>
       </c>
       <c r="N18">
-        <v>1.005777182414766</v>
+        <v>1.024008268691554</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9767534446413045</v>
+        <v>1.016392938191606</v>
       </c>
       <c r="D19">
-        <v>1.000844407633658</v>
+        <v>1.0225951779122</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9833240086790993</v>
+        <v>1.027100995853497</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037667796986397</v>
+        <v>1.028696601028573</v>
       </c>
       <c r="J19">
-        <v>1.004584433177772</v>
+        <v>1.022600829819062</v>
       </c>
       <c r="K19">
-        <v>1.014584116140782</v>
+        <v>1.025951356745268</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>0.9973708098137867</v>
+        <v>1.030441378230237</v>
       </c>
       <c r="N19">
-        <v>1.00601105830033</v>
+        <v>1.024053040291359</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9750060421516858</v>
+        <v>1.016067433398297</v>
       </c>
       <c r="D20">
-        <v>0.9995962524801424</v>
+        <v>1.022360150480432</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9812602855452274</v>
+        <v>1.026694239431203</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037125512916811</v>
+        <v>1.02862958083291</v>
       </c>
       <c r="J20">
-        <v>1.003535639641742</v>
+        <v>1.022400828342932</v>
       </c>
       <c r="K20">
-        <v>1.013646205018458</v>
+        <v>1.025782043019228</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>0.9956408531306309</v>
+        <v>1.030100614427675</v>
       </c>
       <c r="N20">
-        <v>1.00496077535718</v>
+        <v>1.023852754790193</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.96920335555006</v>
+        <v>1.015009002015984</v>
       </c>
       <c r="D21">
-        <v>0.9954547684824864</v>
+        <v>1.021595442565757</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.9744049944329277</v>
+        <v>1.025371638268866</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035304721190892</v>
+        <v>1.028409045798439</v>
       </c>
       <c r="J21">
-        <v>1.00004758829818</v>
+        <v>1.021749617419081</v>
       </c>
       <c r="K21">
-        <v>1.010522766372239</v>
+        <v>1.025230026740556</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>0.9898880567255985</v>
+        <v>1.028991785263843</v>
       </c>
       <c r="N21">
-        <v>1.001467770580625</v>
+        <v>1.023200619072136</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9654565658515927</v>
+        <v>1.014343384155811</v>
       </c>
       <c r="D22">
-        <v>0.9927836770696149</v>
+        <v>1.021114176675687</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9699764435742116</v>
+        <v>1.024539911711442</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034113945223229</v>
+        <v>1.028268360456887</v>
       </c>
       <c r="J22">
-        <v>0.9977915077406412</v>
+        <v>1.021339420759355</v>
       </c>
       <c r="K22">
-        <v>1.008499459144549</v>
+        <v>1.02488175852938</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>0.9861670955090374</v>
+        <v>1.028293871905317</v>
       </c>
       <c r="N22">
-        <v>0.9992084861299184</v>
+        <v>1.022789839886102</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9674524829777639</v>
+        <v>1.01469625399651</v>
       </c>
       <c r="D23">
-        <v>0.9942062484877731</v>
+        <v>1.021369348480014</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9723357600680111</v>
+        <v>1.024980840617256</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034749669453439</v>
+        <v>1.028343132358319</v>
       </c>
       <c r="J23">
-        <v>0.9989936708975929</v>
+        <v>1.021556945167888</v>
       </c>
       <c r="K23">
-        <v>1.009577865720983</v>
+        <v>1.025066495060885</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>0.9881498666570664</v>
+        <v>1.028663920093881</v>
       </c>
       <c r="N23">
-        <v>1.000412356496443</v>
+        <v>1.023007673204246</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9751017309997722</v>
+        <v>1.016085175755397</v>
       </c>
       <c r="D24">
-        <v>0.9996645910576885</v>
+        <v>1.022372962983364</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9813733034503801</v>
+        <v>1.026716410450341</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037155283920669</v>
+        <v>1.028633243756631</v>
       </c>
       <c r="J24">
-        <v>1.003593092350521</v>
+        <v>1.022411733163688</v>
       </c>
       <c r="K24">
-        <v>1.013697599414284</v>
+        <v>1.025791277369939</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>0.9957356161170898</v>
+        <v>1.030119191445907</v>
       </c>
       <c r="N24">
-        <v>1.005018309655395</v>
+        <v>1.023863675097046</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9835820741028668</v>
+        <v>1.017696326556693</v>
       </c>
       <c r="D25">
-        <v>1.005725711037768</v>
+        <v>1.02353555214751</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>0.9913865354985593</v>
+        <v>1.028729794337557</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039757350472318</v>
+        <v>1.028961066645036</v>
       </c>
       <c r="J25">
-        <v>1.008674887445959</v>
+        <v>1.023400369315166</v>
       </c>
       <c r="K25">
-        <v>1.018235788233844</v>
+        <v>1.026627130601935</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.004120052428976</v>
+        <v>1.031804710314264</v>
       </c>
       <c r="N25">
-        <v>1.010107321482759</v>
+        <v>1.024853715225256</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_102/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_102/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018980872966287</v>
+        <v>0.9900582885407354</v>
       </c>
       <c r="D2">
-        <v>1.02446114319694</v>
+        <v>1.01035916979486</v>
       </c>
       <c r="E2">
-        <v>0.9926147277508489</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.030335168224708</v>
+        <v>0.9990307580728472</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029215397759858</v>
+        <v>1.041690399069936</v>
       </c>
       <c r="J2">
-        <v>1.024186229349376</v>
+        <v>1.012540475769067</v>
       </c>
       <c r="K2">
-        <v>1.027289577123887</v>
+        <v>1.021676047063696</v>
       </c>
       <c r="L2">
-        <v>0.9955398523336033</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.033146478001981</v>
+        <v>1.010503612510988</v>
       </c>
       <c r="N2">
-        <v>1.025640691270855</v>
+        <v>1.013978399384675</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019913273533354</v>
+        <v>0.9946078539828735</v>
       </c>
       <c r="D3">
-        <v>1.02513220951308</v>
+        <v>1.013615542760139</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519304</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.031500539460234</v>
+        <v>1.004400368555283</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029395916392016</v>
+        <v>1.043016037360287</v>
       </c>
       <c r="J3">
-        <v>1.024755276268684</v>
+        <v>1.015246601527303</v>
       </c>
       <c r="K3">
-        <v>1.027768109657025</v>
+        <v>1.024077124551201</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202692</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.034119223370288</v>
+        <v>1.01497725376993</v>
       </c>
       <c r="N3">
-        <v>1.026210546302058</v>
+        <v>1.016688368151884</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020516462159065</v>
+        <v>0.9974852863328375</v>
       </c>
       <c r="D4">
-        <v>1.025565968343524</v>
+        <v>1.015675271836164</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930995</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.032254491270626</v>
+        <v>1.007796529442156</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029510801833604</v>
+        <v>1.043839141878787</v>
       </c>
       <c r="J4">
-        <v>1.025122764841613</v>
+        <v>1.01695353822405</v>
       </c>
       <c r="K4">
-        <v>1.028076609206849</v>
+        <v>1.025588120865249</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668345</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.034747965024949</v>
+        <v>1.017801759206441</v>
       </c>
       <c r="N4">
-        <v>1.026578556750913</v>
+        <v>1.01839772889453</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020770009468696</v>
+        <v>0.998679640608835</v>
       </c>
       <c r="D5">
-        <v>1.025748207948639</v>
+        <v>1.016530201448027</v>
       </c>
       <c r="E5">
-        <v>0.9945786998346017</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.032571423921618</v>
+        <v>1.009206257194188</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.02955863900478</v>
+        <v>1.044177066011226</v>
       </c>
       <c r="J5">
-        <v>1.025277083452268</v>
+        <v>1.017660915768889</v>
       </c>
       <c r="K5">
-        <v>1.028206028070511</v>
+        <v>1.026213429246483</v>
       </c>
       <c r="L5">
-        <v>0.997117960005301</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.035012123047279</v>
+        <v>1.018972980511368</v>
       </c>
       <c r="N5">
-        <v>1.026733094511695</v>
+        <v>1.01910611099662</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020812579219242</v>
+        <v>0.9988792961576755</v>
       </c>
       <c r="D6">
-        <v>1.025778800145932</v>
+        <v>1.01667311403752</v>
       </c>
       <c r="E6">
-        <v>0.9946255319796338</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.032624636635983</v>
+        <v>1.009441920685909</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029566644048021</v>
+        <v>1.044233334803981</v>
       </c>
       <c r="J6">
-        <v>1.025302984031158</v>
+        <v>1.017779097898925</v>
       </c>
       <c r="K6">
-        <v>1.028227741958509</v>
+        <v>1.026317848258714</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673453</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.035056466671446</v>
+        <v>1.019168700917361</v>
       </c>
       <c r="N6">
-        <v>1.026759031872378</v>
+        <v>1.019224460958836</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020519850201564</v>
+        <v>0.9975013047890461</v>
       </c>
       <c r="D7">
-        <v>1.025568403881866</v>
+        <v>1.015686738132915</v>
       </c>
       <c r="E7">
-        <v>0.9943035907982488</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.032258726252532</v>
+        <v>1.007815436150123</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029511442846971</v>
+        <v>1.043843688854434</v>
       </c>
       <c r="J7">
-        <v>1.025124827537201</v>
+        <v>1.01696302995206</v>
       </c>
       <c r="K7">
-        <v>1.028078339586947</v>
+        <v>1.025596514839766</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462087</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.034751495365445</v>
+        <v>1.017817471992655</v>
       </c>
       <c r="N7">
-        <v>1.026580622375765</v>
+        <v>1.018407234101881</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019296010198256</v>
+        <v>0.991609956953066</v>
       </c>
       <c r="D8">
-        <v>1.024688029045342</v>
+        <v>1.011469704825629</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674301</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.030729036220263</v>
+        <v>1.000862119694407</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029276802582981</v>
+        <v>1.042145702813613</v>
       </c>
       <c r="J8">
-        <v>1.02437869076697</v>
+        <v>1.013464367813564</v>
       </c>
       <c r="K8">
-        <v>1.027451535674335</v>
+        <v>1.022496521102486</v>
       </c>
       <c r="L8">
-        <v>0.995817528259106</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.033475364731474</v>
+        <v>1.012030425671437</v>
       </c>
       <c r="N8">
-        <v>1.025833426005738</v>
+        <v>1.014903603461847</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.017138417044893</v>
+        <v>0.9806916031363985</v>
       </c>
       <c r="D9">
-        <v>1.023133173525957</v>
+        <v>1.003658867878054</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.028032581264317</v>
+        <v>0.9879741547325173</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028848636154837</v>
+        <v>1.038878865741506</v>
       </c>
       <c r="J9">
-        <v>1.023058389517736</v>
+        <v>1.006945111816874</v>
       </c>
       <c r="K9">
-        <v>1.026338303870982</v>
+        <v>1.016692860124743</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.031221370737172</v>
+        <v>1.001265403508975</v>
       </c>
       <c r="N9">
-        <v>1.024511249777289</v>
+        <v>1.008375089373872</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.015699349548485</v>
+        <v>0.9730092413662851</v>
       </c>
       <c r="D10">
-        <v>1.022094294984481</v>
+        <v>0.9981704969513087</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.0262342816595</v>
+        <v>0.978901666988675</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028553335697396</v>
+        <v>1.036502326481385</v>
       </c>
       <c r="J10">
-        <v>1.022174511273745</v>
+        <v>1.002336224050928</v>
       </c>
       <c r="K10">
-        <v>1.025590323998051</v>
+        <v>1.012572862394787</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.029715138738248</v>
+        <v>0.9936626016328959</v>
       </c>
       <c r="N10">
-        <v>1.023626116324808</v>
+        <v>1.003759656458652</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015076061498879</v>
+        <v>0.9695765892373832</v>
       </c>
       <c r="D11">
-        <v>1.021643913735907</v>
+        <v>0.9957209857339305</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.025455433578786</v>
+        <v>0.9748460448144238</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028423134962715</v>
+        <v>1.035422715445322</v>
       </c>
       <c r="J11">
-        <v>1.021790915513347</v>
+        <v>1.000272169714247</v>
       </c>
       <c r="K11">
-        <v>1.025265066546617</v>
+        <v>1.010724051685723</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.02906207288061</v>
+        <v>0.9902584465887376</v>
       </c>
       <c r="N11">
-        <v>1.023241975814432</v>
+        <v>1.001692670928063</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01484452034675</v>
+        <v>0.9682846333288313</v>
       </c>
       <c r="D12">
-        <v>1.021476541869188</v>
+        <v>0.9947995735445286</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.025166108048748</v>
+        <v>0.9733192681603509</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028374422370938</v>
+        <v>1.035013784775877</v>
       </c>
       <c r="J12">
-        <v>1.021648300528998</v>
+        <v>0.9994946524232764</v>
       </c>
       <c r="K12">
-        <v>1.025144045087072</v>
+        <v>1.01002708834843</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.028819365823694</v>
+        <v>0.9889761241973448</v>
       </c>
       <c r="N12">
-        <v>1.023099158300447</v>
+        <v>1.000914049473356</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.014894187803148</v>
+        <v>0.9685625441815043</v>
       </c>
       <c r="D13">
-        <v>1.021512447318299</v>
+        <v>0.9949977523681011</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.025228170576452</v>
+        <v>0.9736477081870573</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028384887230554</v>
+        <v>1.035101865387886</v>
       </c>
       <c r="J13">
-        <v>1.021678897824112</v>
+        <v>0.9996619323934601</v>
       </c>
       <c r="K13">
-        <v>1.02517001393039</v>
+        <v>1.010177060762121</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.02887143317131</v>
+        <v>0.9892520126884484</v>
       </c>
       <c r="N13">
-        <v>1.02312979904723</v>
+        <v>1.001081567000285</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015056922728106</v>
+        <v>0.9694701467281848</v>
       </c>
       <c r="D14">
-        <v>1.021630080356393</v>
+        <v>0.9956450607753705</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.025431518388797</v>
+        <v>0.9747202633577927</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028419115507397</v>
+        <v>1.035389076515205</v>
       </c>
       <c r="J14">
-        <v>1.021779129573084</v>
+        <v>1.000208124351372</v>
       </c>
       <c r="K14">
-        <v>1.02525506708153</v>
+        <v>1.010666652217215</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.029042013280546</v>
+        <v>0.9901528201581309</v>
       </c>
       <c r="N14">
-        <v>1.023230173136782</v>
+        <v>1.001628534613427</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015157185882084</v>
+        <v>0.9700270787309269</v>
       </c>
       <c r="D15">
-        <v>1.021702547350915</v>
+        <v>0.9960423394519823</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.025556804129788</v>
+        <v>0.9753783664260912</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028440158278932</v>
+        <v>1.035564977940231</v>
       </c>
       <c r="J15">
-        <v>1.02184086838804</v>
+        <v>1.000543197815402</v>
       </c>
       <c r="K15">
-        <v>1.025307443806764</v>
+        <v>1.010966934305566</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.029147096164651</v>
+        <v>0.9907054375602259</v>
       </c>
       <c r="N15">
-        <v>1.023291999627937</v>
+        <v>1.001964083920209</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.015740711718097</v>
+        <v>0.9732347379328273</v>
       </c>
       <c r="D16">
-        <v>1.022124174005613</v>
+        <v>0.9983314757366376</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.026285967542707</v>
+        <v>0.9791680430656425</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028561927554817</v>
+        <v>1.036572884874104</v>
       </c>
       <c r="J16">
-        <v>1.022199950948831</v>
+        <v>1.002471720910689</v>
       </c>
       <c r="K16">
-        <v>1.025611881294649</v>
+        <v>1.012694154851915</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.029758462460511</v>
+        <v>0.9938860768036096</v>
       </c>
       <c r="N16">
-        <v>1.023651592127151</v>
+        <v>1.003895345739495</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016106698720142</v>
+        <v>0.9752177407559565</v>
       </c>
       <c r="D17">
-        <v>1.022388505342687</v>
+        <v>0.9997474440895303</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.02674330577386</v>
+        <v>0.9815103211992997</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.028637685672038</v>
+        <v>1.037191365670344</v>
       </c>
       <c r="J17">
-        <v>1.022424961115562</v>
+        <v>1.003662742891044</v>
       </c>
       <c r="K17">
-        <v>1.025802478557324</v>
+        <v>1.013759902975277</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.030141726471555</v>
+        <v>0.9958504988304987</v>
       </c>
       <c r="N17">
-        <v>1.023876921834128</v>
+        <v>1.005088059107675</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.016320157073171</v>
+        <v>0.9763642214080201</v>
       </c>
       <c r="D18">
-        <v>1.022542633178449</v>
+        <v>1.000566351927688</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.027010046835683</v>
+        <v>0.9828643503090704</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028681648908666</v>
+        <v>1.037547260278398</v>
       </c>
       <c r="J18">
-        <v>1.022556121709899</v>
+        <v>1.004350888951797</v>
       </c>
       <c r="K18">
-        <v>1.025913517796589</v>
+        <v>1.014375316555492</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.030365195185839</v>
+        <v>0.9969855714933862</v>
       </c>
       <c r="N18">
-        <v>1.024008268691554</v>
+        <v>1.005777182414766</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.016392938191606</v>
+        <v>0.9767534446413049</v>
       </c>
       <c r="D19">
-        <v>1.0225951779122</v>
+        <v>1.000844407633658</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.027100995853497</v>
+        <v>0.9833240086790996</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028696601028573</v>
+        <v>1.037667796986397</v>
       </c>
       <c r="J19">
-        <v>1.022600829819062</v>
+        <v>1.004584433177772</v>
       </c>
       <c r="K19">
-        <v>1.025951356745268</v>
+        <v>1.014584116140782</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.030441378230237</v>
+        <v>0.9973708098137872</v>
       </c>
       <c r="N19">
-        <v>1.024053040291359</v>
+        <v>1.00601105830033</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016067433398297</v>
+        <v>0.9750060421516857</v>
       </c>
       <c r="D20">
-        <v>1.022360150480432</v>
+        <v>0.9995962524801422</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.026694239431203</v>
+        <v>0.981260285545227</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02862958083291</v>
+        <v>1.037125512916811</v>
       </c>
       <c r="J20">
-        <v>1.022400828342932</v>
+        <v>1.003535639641742</v>
       </c>
       <c r="K20">
-        <v>1.025782043019228</v>
+        <v>1.013646205018458</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.030100614427675</v>
+        <v>0.9956408531306304</v>
       </c>
       <c r="N20">
-        <v>1.023852754790193</v>
+        <v>1.00496077535718</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015009002015984</v>
+        <v>0.9692033555500593</v>
       </c>
       <c r="D21">
-        <v>1.021595442565757</v>
+        <v>0.9954547684824856</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.025371638268866</v>
+        <v>0.9744049944329274</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028409045798439</v>
+        <v>1.035304721190891</v>
       </c>
       <c r="J21">
-        <v>1.021749617419081</v>
+        <v>1.000047588298179</v>
       </c>
       <c r="K21">
-        <v>1.025230026740556</v>
+        <v>1.010522766372238</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.028991785263843</v>
+        <v>0.9898880567255982</v>
       </c>
       <c r="N21">
-        <v>1.023200619072136</v>
+        <v>1.001467770580624</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014343384155811</v>
+        <v>0.9654565658515933</v>
       </c>
       <c r="D22">
-        <v>1.021114176675687</v>
+        <v>0.9927836770696153</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.024539911711442</v>
+        <v>0.9699764435742119</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028268360456887</v>
+        <v>1.03411394522323</v>
       </c>
       <c r="J22">
-        <v>1.021339420759355</v>
+        <v>0.9977915077406418</v>
       </c>
       <c r="K22">
-        <v>1.02488175852938</v>
+        <v>1.00849945914455</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.028293871905317</v>
+        <v>0.9861670955090378</v>
       </c>
       <c r="N22">
-        <v>1.022789839886102</v>
+        <v>0.9992084861299191</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.01469625399651</v>
+        <v>0.9674524829777635</v>
       </c>
       <c r="D23">
-        <v>1.021369348480014</v>
+        <v>0.9942062484877727</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.024980840617256</v>
+        <v>0.9723357600680108</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028343132358319</v>
+        <v>1.034749669453438</v>
       </c>
       <c r="J23">
-        <v>1.021556945167888</v>
+        <v>0.9989936708975926</v>
       </c>
       <c r="K23">
-        <v>1.025066495060885</v>
+        <v>1.009577865720983</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.028663920093881</v>
+        <v>0.9881498666570661</v>
       </c>
       <c r="N23">
-        <v>1.023007673204246</v>
+        <v>1.000412356496443</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016085175755397</v>
+        <v>0.9751017309997729</v>
       </c>
       <c r="D24">
-        <v>1.022372962983364</v>
+        <v>0.999664591057689</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.026716410450341</v>
+        <v>0.9813733034503805</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.028633243756631</v>
+        <v>1.037155283920669</v>
       </c>
       <c r="J24">
-        <v>1.022411733163688</v>
+        <v>1.003593092350521</v>
       </c>
       <c r="K24">
-        <v>1.025791277369939</v>
+        <v>1.013697599414284</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.030119191445907</v>
+        <v>0.9957356161170904</v>
       </c>
       <c r="N24">
-        <v>1.023863675097046</v>
+        <v>1.005018309655396</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017696326556693</v>
+        <v>0.9835820741028665</v>
       </c>
       <c r="D25">
-        <v>1.02353555214751</v>
+        <v>1.005725711037767</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.028729794337557</v>
+        <v>0.9913865354985592</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028961066645036</v>
+        <v>1.039757350472318</v>
       </c>
       <c r="J25">
-        <v>1.023400369315166</v>
+        <v>1.008674887445959</v>
       </c>
       <c r="K25">
-        <v>1.026627130601935</v>
+        <v>1.018235788233844</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.031804710314264</v>
+        <v>1.004120052428976</v>
       </c>
       <c r="N25">
-        <v>1.024853715225256</v>
+        <v>1.010107321482759</v>
       </c>
     </row>
   </sheetData>
